--- a/data/trans_dic/iP30B8_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30B8_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>11,05%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>12,88%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>14,31%</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>11,95%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,38; 18,24</t>
+          <t>7,74; 15,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,23; 17,77</t>
+          <t>9,22; 17,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,22; 16,77</t>
+          <t>9,41; 15,24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>13,54%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,74; 15,86</t>
+          <t>9,38; 18,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,22; 17,34</t>
+          <t>11,23; 17,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,41; 15,24</t>
+          <t>11,22; 16,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B8_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30B8_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>5,42%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,03; 18,27</t>
+          <t>3,57; 16,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,52; 14,26</t>
+          <t>0,0; 8,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,48; 14,53</t>
+          <t>2,69; 10,35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>14,5%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,74; 15,86</t>
+          <t>10,03; 18,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,22; 17,34</t>
+          <t>11,09; 20,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,41; 15,24</t>
+          <t>11,59; 17,95</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>11,11%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,38; 18,24</t>
+          <t>6,9; 14,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,23; 17,77</t>
+          <t>7,88; 16,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,22; 16,77</t>
+          <t>8,26; 14,15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>13,76%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,01; 15,26</t>
+          <t>9,49; 20,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,85; 15,66</t>
+          <t>10,62; 18,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,92; 14,4</t>
+          <t>10,9; 17,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12,21%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13,13%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10,06; 15,51</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10,94; 15,68</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10,98; 14,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_dic/iP30B8_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30B8_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 16,75</t>
+          <t>3,42; 17,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,48</t>
+          <t>0,0; 9,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 10,35</t>
+          <t>2,48; 10,56</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,03; 18,7</t>
+          <t>9,74; 18,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,09; 20,02</t>
+          <t>11,37; 21,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,59; 17,95</t>
+          <t>11,19; 17,67</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 14,64</t>
+          <t>7,18; 14,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 16,93</t>
+          <t>8,16; 16,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,26; 14,15</t>
+          <t>8,24; 14,06</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,49; 20,67</t>
+          <t>9,32; 19,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,62; 18,66</t>
+          <t>10,53; 18,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,9; 17,94</t>
+          <t>10,92; 18,19</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,06; 15,51</t>
+          <t>9,95; 15,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,94; 15,68</t>
+          <t>11,0; 15,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,98; 14,54</t>
+          <t>10,92; 14,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B8_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30B8_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,67%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,42; 17,4</t>
+          <t>0,0; 10,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,4</t>
+          <t>3,61; 17,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 10,56</t>
+          <t>2,63; 10,82</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>14,41%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,74; 18,53</t>
+          <t>11,05; 21,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,37; 21,18</t>
+          <t>9,33; 18,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,19; 17,67</t>
+          <t>11,33; 17,89</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>10,95%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 14,75</t>
+          <t>8,5; 17,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,16; 16,99</t>
+          <t>6,74; 14,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,24; 14,06</t>
+          <t>8,55; 14,02</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>14,4%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,32; 19,88</t>
+          <t>9,9; 20,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,53; 18,96</t>
+          <t>9,63; 25,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,92; 18,19</t>
+          <t>10,84; 21,16</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>12,88%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,95; 15,33</t>
+          <t>10,73; 16,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,0; 15,78</t>
+          <t>10,08; 16,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,92; 14,49</t>
+          <t>10,87; 15,34</t>
         </is>
       </c>
     </row>
